--- a/files/polls/CHL_2020-3.xlsx
+++ b/files/polls/CHL_2020-3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
   <si>
     <t>Fecha</t>
   </si>
@@ -69,6 +69,48 @@
     <t>27/03/2020</t>
   </si>
   <si>
+    <t>14/04/2020</t>
+  </si>
+  <si>
+    <t>28/04/2020</t>
+  </si>
+  <si>
+    <t>30/04/2020</t>
+  </si>
+  <si>
+    <t>12/05/2020</t>
+  </si>
+  <si>
+    <t>30/05/2020</t>
+  </si>
+  <si>
+    <t>13/06/2020</t>
+  </si>
+  <si>
+    <t>21/06/2020</t>
+  </si>
+  <si>
+    <t>28/06/2020</t>
+  </si>
+  <si>
+    <t>11/07/2020</t>
+  </si>
+  <si>
+    <t>26/07/2020</t>
+  </si>
+  <si>
+    <t>30/07/2020</t>
+  </si>
+  <si>
+    <t>01/08/2020</t>
+  </si>
+  <si>
+    <t>15/08/2020</t>
+  </si>
+  <si>
+    <t>21/08/2020</t>
+  </si>
+  <si>
     <t>Encuesta</t>
   </si>
   <si>
@@ -88,6 +130,9 @@
   </si>
   <si>
     <t>Criteria Research</t>
+  </si>
+  <si>
+    <t>Cadem</t>
   </si>
   <si>
     <t>N</t>
@@ -142,7 +187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E51"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -150,16 +195,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -167,7 +212,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1">
         <v>2000</v>
@@ -184,7 +229,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1">
         <v>1159</v>
@@ -201,7 +246,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
         <v>1215</v>
@@ -218,7 +263,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -233,7 +278,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1">
         <v>1030</v>
@@ -250,7 +295,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>1030</v>
@@ -267,7 +312,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1">
         <v>1000</v>
@@ -284,7 +329,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1">
         <v>780</v>
@@ -301,7 +346,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1">
         <v>950</v>
@@ -318,7 +363,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>950</v>
@@ -335,7 +380,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1">
         <v>1033</v>
@@ -352,7 +397,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1">
         <v>806</v>
@@ -369,7 +414,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1">
         <v>975</v>
@@ -386,7 +431,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1">
         <v>975</v>
@@ -403,7 +448,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
         <v>1135</v>
@@ -420,7 +465,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1">
         <v>1045</v>
@@ -437,7 +482,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1">
         <v>1045</v>
@@ -454,7 +499,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
         <v>1445</v>
@@ -471,7 +516,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1">
         <v>1043</v>
@@ -488,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1">
         <v>1043</v>
@@ -505,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1">
         <v>1135</v>
@@ -522,7 +567,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
         <v>690</v>
@@ -539,7 +584,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1">
         <v>1273</v>
@@ -556,7 +601,7 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1">
         <v>1230</v>
@@ -573,7 +618,7 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1">
         <v>1230</v>
@@ -583,6 +628,431 @@
       </c>
       <c r="E26" s="1">
         <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1270</v>
+      </c>
+      <c r="D27" s="1">
+        <v>73</v>
+      </c>
+      <c r="E27" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1">
+        <v>725</v>
+      </c>
+      <c r="D28" s="1">
+        <v>50</v>
+      </c>
+      <c r="E28" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1227</v>
+      </c>
+      <c r="D29" s="1">
+        <v>77</v>
+      </c>
+      <c r="E29" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1">
+        <v>736</v>
+      </c>
+      <c r="D30" s="1">
+        <v>54</v>
+      </c>
+      <c r="E30" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1">
+        <v>712</v>
+      </c>
+      <c r="D31" s="1">
+        <v>82</v>
+      </c>
+      <c r="E31" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1209</v>
+      </c>
+      <c r="D32" s="1">
+        <v>76</v>
+      </c>
+      <c r="E32" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1">
+        <v>724</v>
+      </c>
+      <c r="D33" s="1">
+        <v>60</v>
+      </c>
+      <c r="E33" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1215</v>
+      </c>
+      <c r="D34" s="1">
+        <v>71</v>
+      </c>
+      <c r="E34" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1">
+        <v>661</v>
+      </c>
+      <c r="D35" s="1">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1">
+        <v>960</v>
+      </c>
+      <c r="D36" s="1">
+        <v>53</v>
+      </c>
+      <c r="E36" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1730</v>
+      </c>
+      <c r="D37" s="1">
+        <v>74</v>
+      </c>
+      <c r="E37" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1961</v>
+      </c>
+      <c r="D38" s="1">
+        <v>49</v>
+      </c>
+      <c r="E38" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1260</v>
+      </c>
+      <c r="D39" s="1">
+        <v>67</v>
+      </c>
+      <c r="E39" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="1">
+        <v>670</v>
+      </c>
+      <c r="D40" s="1">
+        <v>56</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1340</v>
+      </c>
+      <c r="D41" s="1">
+        <v>74</v>
+      </c>
+      <c r="E41" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="1">
+        <v>747</v>
+      </c>
+      <c r="D42" s="1">
+        <v>53</v>
+      </c>
+      <c r="E42" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2034</v>
+      </c>
+      <c r="D43" s="1">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3527</v>
+      </c>
+      <c r="D44" s="1">
+        <v>80</v>
+      </c>
+      <c r="E44" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="1">
+        <v>704</v>
+      </c>
+      <c r="D45" s="1">
+        <v>80</v>
+      </c>
+      <c r="E45" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="1">
+        <v>704</v>
+      </c>
+      <c r="D46" s="1">
+        <v>79</v>
+      </c>
+      <c r="E46" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D47" s="1">
+        <v>77</v>
+      </c>
+      <c r="E47" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="1">
+        <v>797</v>
+      </c>
+      <c r="D48" s="1">
+        <v>57</v>
+      </c>
+      <c r="E48" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1434</v>
+      </c>
+      <c r="D49" s="1">
+        <v>71</v>
+      </c>
+      <c r="E49" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1434</v>
+      </c>
+      <c r="D50" s="1">
+        <v>54</v>
+      </c>
+      <c r="E50" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="1">
+        <v>705</v>
+      </c>
+      <c r="D51" s="1">
+        <v>84</v>
+      </c>
+      <c r="E51" s="1">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2020-3.xlsx
+++ b/files/polls/CHL_2020-3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="41">
   <si>
     <t>Fecha</t>
   </si>
@@ -27,9 +27,6 @@
     <t>10/12/2019</t>
   </si>
   <si>
-    <t>Constitución en abril de 2020?"</t>
-  </si>
-  <si>
     <t>26/12/2019</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
   </si>
   <si>
     <t>Coes</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Mori</t>
@@ -187,7 +181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E50"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -195,16 +189,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -212,7 +206,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1">
         <v>2000</v>
@@ -229,7 +223,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
         <v>1159</v>
@@ -246,7 +240,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>1215</v>
@@ -263,31 +257,33 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1030</v>
+      </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>1030</v>
       </c>
       <c r="D6" s="1">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -295,33 +291,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="1">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
-        <v>1000</v>
+        <v>780</v>
       </c>
       <c r="D8" s="1">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -329,33 +325,33 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
-        <v>780</v>
+        <v>950</v>
       </c>
       <c r="D9" s="1">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>950</v>
       </c>
       <c r="D10" s="1">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -363,16 +359,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1">
-        <v>950</v>
+        <v>1033</v>
       </c>
       <c r="D11" s="1">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -380,16 +376,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
-        <v>1033</v>
+        <v>806</v>
       </c>
       <c r="D12" s="1">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -397,33 +393,33 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
-        <v>806</v>
+        <v>975</v>
       </c>
       <c r="D13" s="1">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
         <v>975</v>
       </c>
       <c r="D14" s="1">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -431,16 +427,16 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1">
-        <v>975</v>
+        <v>1135</v>
       </c>
       <c r="D15" s="1">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -448,33 +444,33 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1">
-        <v>1135</v>
+        <v>1045</v>
       </c>
       <c r="D16" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1">
         <v>1045</v>
       </c>
       <c r="D17" s="1">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -482,16 +478,16 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1">
-        <v>1045</v>
+        <v>1445</v>
       </c>
       <c r="D18" s="1">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -499,33 +495,33 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>1445</v>
+        <v>1043</v>
       </c>
       <c r="D19" s="1">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1">
         <v>1043</v>
       </c>
       <c r="D20" s="1">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E20" s="1">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
@@ -533,33 +529,33 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
-        <v>1043</v>
+        <v>1135</v>
       </c>
       <c r="D21" s="1">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1">
-        <v>1135</v>
+        <v>690</v>
       </c>
       <c r="D22" s="1">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -567,16 +563,16 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1">
-        <v>690</v>
+        <v>1273</v>
       </c>
       <c r="D23" s="1">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E23" s="1">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -584,33 +580,33 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1">
-        <v>1273</v>
+        <v>1230</v>
       </c>
       <c r="D24" s="1">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E24" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
         <v>1230</v>
       </c>
       <c r="D25" s="1">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E25" s="1">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -618,33 +614,33 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1">
-        <v>1230</v>
+        <v>1270</v>
       </c>
       <c r="D26" s="1">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1">
-        <v>1270</v>
+        <v>725</v>
       </c>
       <c r="D27" s="1">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -652,33 +648,33 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1">
-        <v>725</v>
+        <v>1227</v>
       </c>
       <c r="D28" s="1">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>1227</v>
+        <v>736</v>
       </c>
       <c r="D29" s="1">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E29" s="1">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
@@ -686,16 +682,16 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
-        <v>736</v>
+        <v>712</v>
       </c>
       <c r="D30" s="1">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E30" s="1">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -703,33 +699,33 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
-        <v>712</v>
+        <v>1209</v>
       </c>
       <c r="D31" s="1">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E31" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
-        <v>1209</v>
+        <v>724</v>
       </c>
       <c r="D32" s="1">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E32" s="1">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
@@ -737,33 +733,33 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
-        <v>724</v>
+        <v>1215</v>
       </c>
       <c r="D33" s="1">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E33" s="1">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
-        <v>1215</v>
+        <v>661</v>
       </c>
       <c r="D34" s="1">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35">
@@ -771,33 +767,33 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
-        <v>661</v>
+        <v>960</v>
       </c>
       <c r="D35" s="1">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E35" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1">
-        <v>960</v>
+        <v>1730</v>
       </c>
       <c r="D36" s="1">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E36" s="1">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -805,16 +801,16 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
-        <v>1730</v>
+        <v>1961</v>
       </c>
       <c r="D37" s="1">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E37" s="1">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -822,33 +818,33 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1">
-        <v>1961</v>
+        <v>1260</v>
       </c>
       <c r="D38" s="1">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E38" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1">
-        <v>1260</v>
+        <v>670</v>
       </c>
       <c r="D39" s="1">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E39" s="1">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
@@ -856,33 +852,33 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1">
-        <v>670</v>
+        <v>1340</v>
       </c>
       <c r="D40" s="1">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E40" s="1">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="1">
-        <v>1340</v>
+        <v>747</v>
       </c>
       <c r="D41" s="1">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E41" s="1">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
@@ -890,16 +886,16 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1">
-        <v>747</v>
+        <v>2034</v>
       </c>
       <c r="D42" s="1">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E42" s="1">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
@@ -910,24 +906,24 @@
         <v>37</v>
       </c>
       <c r="C43" s="1">
-        <v>2034</v>
+        <v>3527</v>
       </c>
       <c r="D43" s="1">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E43" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" s="1">
-        <v>3527</v>
+        <v>704</v>
       </c>
       <c r="D44" s="1">
         <v>80</v>
@@ -938,19 +934,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
         <v>704</v>
       </c>
       <c r="D45" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
@@ -958,33 +954,33 @@
         <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C46" s="1">
-        <v>704</v>
+        <v>1430</v>
       </c>
       <c r="D46" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E46" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1">
-        <v>1430</v>
+        <v>797</v>
       </c>
       <c r="D47" s="1">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E47" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48">
@@ -992,33 +988,33 @@
         <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1">
-        <v>797</v>
+        <v>1434</v>
       </c>
       <c r="D48" s="1">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E48" s="1">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" s="1">
         <v>1434</v>
       </c>
       <c r="D49" s="1">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E49" s="1">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
@@ -1026,32 +1022,15 @@
         <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C50" s="1">
-        <v>1434</v>
+        <v>705</v>
       </c>
       <c r="D50" s="1">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="E50" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="1">
-        <v>705</v>
-      </c>
-      <c r="D51" s="1">
-        <v>84</v>
-      </c>
-      <c r="E51" s="1">
         <v>13</v>
       </c>
     </row>

--- a/files/polls/CHL_2020-3.xlsx
+++ b/files/polls/CHL_2020-3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Fecha</t>
   </si>
@@ -181,7 +181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E31"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -271,160 +271,160 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="1">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="D7" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
-        <v>780</v>
+        <v>1033</v>
       </c>
       <c r="D8" s="1">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1">
+        <v>806</v>
+      </c>
+      <c r="D9" s="1">
+        <v>90</v>
+      </c>
+      <c r="E9" s="1">
         <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1">
-        <v>950</v>
-      </c>
-      <c r="D9" s="1">
-        <v>76</v>
-      </c>
-      <c r="E9" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="1">
-        <v>950</v>
+        <v>975</v>
       </c>
       <c r="D10" s="1">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>1033</v>
+        <v>1135</v>
       </c>
       <c r="D11" s="1">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
-        <v>806</v>
+        <v>1045</v>
       </c>
       <c r="D12" s="1">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
-        <v>975</v>
+        <v>1445</v>
       </c>
       <c r="D13" s="1">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="1">
-        <v>975</v>
+        <v>1043</v>
       </c>
       <c r="D14" s="1">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -441,254 +441,254 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
-        <v>1045</v>
+        <v>1273</v>
       </c>
       <c r="D16" s="1">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E16" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="1">
-        <v>1045</v>
+        <v>1230</v>
       </c>
       <c r="D17" s="1">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E17" s="1">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1270</v>
+      </c>
+      <c r="D18" s="1">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1">
         <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1445</v>
-      </c>
-      <c r="D18" s="1">
-        <v>83</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>1043</v>
+        <v>1227</v>
       </c>
       <c r="D19" s="1">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E19" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1">
-        <v>1043</v>
+        <v>712</v>
       </c>
       <c r="D20" s="1">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="1">
-        <v>1135</v>
+        <v>1209</v>
       </c>
       <c r="D21" s="1">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="1">
-        <v>690</v>
+        <v>1215</v>
       </c>
       <c r="D22" s="1">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E22" s="1">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1">
-        <v>1273</v>
+        <v>1730</v>
       </c>
       <c r="D23" s="1">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E23" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1">
-        <v>1230</v>
+        <v>1961</v>
       </c>
       <c r="D24" s="1">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="E24" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="1">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="D25" s="1">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="1">
-        <v>1270</v>
+        <v>1340</v>
       </c>
       <c r="D26" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1">
-        <v>725</v>
+        <v>2034</v>
       </c>
       <c r="D27" s="1">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1">
-        <v>1227</v>
+        <v>3527</v>
       </c>
       <c r="D28" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E28" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>736</v>
+        <v>1430</v>
       </c>
       <c r="D29" s="1">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E29" s="1">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1">
-        <v>712</v>
+        <v>1434</v>
       </c>
       <c r="D30" s="1">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E30" s="1">
         <v>15</v>
@@ -696,341 +696,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1">
-        <v>1209</v>
+        <v>705</v>
       </c>
       <c r="D31" s="1">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E31" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="1">
-        <v>724</v>
-      </c>
-      <c r="D32" s="1">
-        <v>60</v>
-      </c>
-      <c r="E32" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1215</v>
-      </c>
-      <c r="D33" s="1">
-        <v>71</v>
-      </c>
-      <c r="E33" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="1">
-        <v>661</v>
-      </c>
-      <c r="D34" s="1">
-        <v>50</v>
-      </c>
-      <c r="E34" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="1">
-        <v>960</v>
-      </c>
-      <c r="D35" s="1">
-        <v>53</v>
-      </c>
-      <c r="E35" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1730</v>
-      </c>
-      <c r="D36" s="1">
-        <v>74</v>
-      </c>
-      <c r="E36" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1961</v>
-      </c>
-      <c r="D37" s="1">
-        <v>49</v>
-      </c>
-      <c r="E37" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1260</v>
-      </c>
-      <c r="D38" s="1">
-        <v>67</v>
-      </c>
-      <c r="E38" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="1">
-        <v>670</v>
-      </c>
-      <c r="D39" s="1">
-        <v>56</v>
-      </c>
-      <c r="E39" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1340</v>
-      </c>
-      <c r="D40" s="1">
-        <v>74</v>
-      </c>
-      <c r="E40" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="1">
-        <v>747</v>
-      </c>
-      <c r="D41" s="1">
-        <v>53</v>
-      </c>
-      <c r="E41" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2034</v>
-      </c>
-      <c r="D42" s="1">
-        <v>64</v>
-      </c>
-      <c r="E42" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3527</v>
-      </c>
-      <c r="D43" s="1">
-        <v>80</v>
-      </c>
-      <c r="E43" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="1">
-        <v>704</v>
-      </c>
-      <c r="D44" s="1">
-        <v>80</v>
-      </c>
-      <c r="E44" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="1">
-        <v>704</v>
-      </c>
-      <c r="D45" s="1">
-        <v>79</v>
-      </c>
-      <c r="E45" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1430</v>
-      </c>
-      <c r="D46" s="1">
-        <v>77</v>
-      </c>
-      <c r="E46" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="1">
-        <v>797</v>
-      </c>
-      <c r="D47" s="1">
-        <v>57</v>
-      </c>
-      <c r="E47" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1434</v>
-      </c>
-      <c r="D48" s="1">
-        <v>71</v>
-      </c>
-      <c r="E48" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1434</v>
-      </c>
-      <c r="D49" s="1">
-        <v>54</v>
-      </c>
-      <c r="E49" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="1">
-        <v>705</v>
-      </c>
-      <c r="D50" s="1">
-        <v>84</v>
-      </c>
-      <c r="E50" s="1">
         <v>13</v>
       </c>
     </row>

--- a/files/polls/CHL_2020-3.xlsx
+++ b/files/polls/CHL_2020-3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>Fecha</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Prob</t>
   </si>
   <si>
     <t>Sí</t>
@@ -181,7 +184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -200,6 +203,9 @@
       <c r="E1" t="s">
         <v>40</v>
       </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -212,9 +218,12 @@
         <v>2000</v>
       </c>
       <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>78</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>7</v>
       </c>
     </row>
@@ -229,9 +238,12 @@
         <v>1159</v>
       </c>
       <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>81</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>9</v>
       </c>
     </row>
@@ -246,9 +258,12 @@
         <v>1215</v>
       </c>
       <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>90</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>7</v>
       </c>
     </row>
@@ -263,9 +278,12 @@
         <v>1030</v>
       </c>
       <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>80</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>7</v>
       </c>
     </row>
@@ -280,9 +298,12 @@
         <v>1000</v>
       </c>
       <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>78</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>9</v>
       </c>
     </row>
@@ -297,9 +318,12 @@
         <v>950</v>
       </c>
       <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>76</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>10</v>
       </c>
     </row>
@@ -314,9 +338,12 @@
         <v>1033</v>
       </c>
       <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>83</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>3</v>
       </c>
     </row>
@@ -331,9 +358,12 @@
         <v>806</v>
       </c>
       <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>90</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>6</v>
       </c>
     </row>
@@ -348,9 +378,12 @@
         <v>975</v>
       </c>
       <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>74</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>13</v>
       </c>
     </row>
@@ -365,9 +398,12 @@
         <v>1135</v>
       </c>
       <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <v>71</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>15</v>
       </c>
     </row>
@@ -382,9 +418,12 @@
         <v>1045</v>
       </c>
       <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <v>73</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>11</v>
       </c>
     </row>
@@ -399,9 +438,12 @@
         <v>1445</v>
       </c>
       <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <v>83</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>4</v>
       </c>
     </row>
@@ -416,9 +458,12 @@
         <v>1043</v>
       </c>
       <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
         <v>72</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>15</v>
       </c>
     </row>
@@ -433,9 +478,12 @@
         <v>1135</v>
       </c>
       <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
         <v>71</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>15</v>
       </c>
     </row>
@@ -450,9 +498,12 @@
         <v>1273</v>
       </c>
       <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <v>86</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>5</v>
       </c>
     </row>
@@ -467,9 +518,12 @@
         <v>1230</v>
       </c>
       <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <v>76</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>12</v>
       </c>
     </row>
@@ -484,9 +538,12 @@
         <v>1270</v>
       </c>
       <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <v>73</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>12</v>
       </c>
     </row>
@@ -501,9 +558,12 @@
         <v>1227</v>
       </c>
       <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <v>77</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>12</v>
       </c>
     </row>
@@ -518,9 +578,12 @@
         <v>712</v>
       </c>
       <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
         <v>82</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>15</v>
       </c>
     </row>
@@ -535,9 +598,12 @@
         <v>1209</v>
       </c>
       <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
         <v>76</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>11</v>
       </c>
     </row>
@@ -552,9 +618,12 @@
         <v>1215</v>
       </c>
       <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
         <v>71</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>12</v>
       </c>
     </row>
@@ -569,9 +638,12 @@
         <v>1730</v>
       </c>
       <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
         <v>74</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>14</v>
       </c>
     </row>
@@ -586,9 +658,12 @@
         <v>1961</v>
       </c>
       <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
         <v>49</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>34</v>
       </c>
     </row>
@@ -603,9 +678,12 @@
         <v>1260</v>
       </c>
       <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <v>67</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>14</v>
       </c>
     </row>
@@ -620,9 +698,12 @@
         <v>1340</v>
       </c>
       <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
         <v>74</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>13</v>
       </c>
     </row>
@@ -637,9 +718,12 @@
         <v>2034</v>
       </c>
       <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
         <v>64</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>25</v>
       </c>
     </row>
@@ -654,9 +738,12 @@
         <v>3527</v>
       </c>
       <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
         <v>80</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>16</v>
       </c>
     </row>
@@ -671,9 +758,12 @@
         <v>1430</v>
       </c>
       <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
         <v>77</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>11</v>
       </c>
     </row>
@@ -688,9 +778,12 @@
         <v>1434</v>
       </c>
       <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
         <v>71</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>15</v>
       </c>
     </row>
@@ -705,9 +798,12 @@
         <v>705</v>
       </c>
       <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
         <v>84</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>13</v>
       </c>
     </row>

--- a/files/polls/CHL_2020-3.xlsx
+++ b/files/polls/CHL_2020-3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
   <si>
     <t>Fecha</t>
   </si>
@@ -108,6 +108,9 @@
     <t>21/08/2020</t>
   </si>
   <si>
+    <t>19/08/2020</t>
+  </si>
+  <si>
     <t>Encuesta</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
   </si>
   <si>
     <t>Cadem</t>
+  </si>
+  <si>
+    <t>Ipsos</t>
   </si>
   <si>
     <t>N</t>
@@ -184,7 +190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F51"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -192,19 +198,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -212,7 +218,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1">
         <v>2000</v>
@@ -232,7 +238,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1">
         <v>1159</v>
@@ -252,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
         <v>1215</v>
@@ -272,7 +278,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1">
         <v>1030</v>
@@ -289,190 +295,190 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1">
-        <v>1000</v>
+        <v>1030</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F6" s="1">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="1">
-        <v>1033</v>
+        <v>780</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1">
-        <v>806</v>
+        <v>950</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F9" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1">
-        <v>975</v>
+        <v>950</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1">
-        <v>1135</v>
+        <v>1033</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1">
-        <v>1045</v>
+        <v>806</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F12" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1">
-        <v>1445</v>
+        <v>975</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1">
-        <v>1043</v>
+        <v>975</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1">
         <v>1135</v>
@@ -489,299 +495,299 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
-        <v>1273</v>
+        <v>1045</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F16" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1">
-        <v>1230</v>
+        <v>1045</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
-        <v>1270</v>
+        <v>1445</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F18" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1">
-        <v>1227</v>
+        <v>1043</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F19" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1">
-        <v>712</v>
+        <v>1043</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1">
-        <v>1209</v>
+        <v>1135</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F21" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1">
-        <v>1215</v>
+        <v>690</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F22" s="1">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1">
-        <v>1730</v>
+        <v>1273</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F23" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1">
-        <v>1961</v>
+        <v>1230</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F25" s="1">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1">
-        <v>1340</v>
+        <v>1270</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F26" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1">
-        <v>2034</v>
+        <v>725</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1">
-        <v>3527</v>
+        <v>1227</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F28" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1">
-        <v>1430</v>
+        <v>736</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F29" s="1">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1">
-        <v>1434</v>
+        <v>712</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F30" s="1">
         <v>15</v>
@@ -789,22 +795,422 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1209</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>76</v>
+      </c>
+      <c r="F31" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1">
+        <v>724</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>60</v>
+      </c>
+      <c r="F32" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1215</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>71</v>
+      </c>
+      <c r="F33" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>661</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>50</v>
+      </c>
+      <c r="F34" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1">
+        <v>960</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>53</v>
+      </c>
+      <c r="F35" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1730</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>74</v>
+      </c>
+      <c r="F36" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1961</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>49</v>
+      </c>
+      <c r="F37" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1260</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>67</v>
+      </c>
+      <c r="F38" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="1">
+        <v>670</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>56</v>
+      </c>
+      <c r="F39" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1340</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>74</v>
+      </c>
+      <c r="F40" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="1">
+        <v>747</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>53</v>
+      </c>
+      <c r="F41" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2034</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>64</v>
+      </c>
+      <c r="F42" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3527</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>80</v>
+      </c>
+      <c r="F43" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="1">
+        <v>704</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>80</v>
+      </c>
+      <c r="F44" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="1">
+        <v>704</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>79</v>
+      </c>
+      <c r="F45" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>77</v>
+      </c>
+      <c r="F46" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="1">
+        <v>797</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>57</v>
+      </c>
+      <c r="F47" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1434</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>71</v>
+      </c>
+      <c r="F48" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1434</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>54</v>
+      </c>
+      <c r="F49" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="1">
         <v>705</v>
       </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
         <v>84</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F50" s="1">
         <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="1">
+        <v>800</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>78</v>
+      </c>
+      <c r="F51" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2020-3.xlsx
+++ b/files/polls/CHL_2020-3.xlsx
@@ -1161,7 +1161,7 @@
         <v>33</v>
       </c>
       <c r="C49" s="1">
-        <v>1434</v>
+        <v>857</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>

--- a/files/polls/CHL_2020-3.xlsx
+++ b/files/polls/CHL_2020-3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
   <si>
     <t>Fecha</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>19/08/2020</t>
+  </si>
+  <si>
+    <t>24/08/2020</t>
   </si>
   <si>
     <t>Encuesta</t>
@@ -190,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -198,19 +201,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -218,7 +221,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1">
         <v>2000</v>
@@ -238,7 +241,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1">
         <v>1159</v>
@@ -258,7 +261,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1">
         <v>1215</v>
@@ -278,7 +281,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>1030</v>
@@ -298,7 +301,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
         <v>1030</v>
@@ -318,7 +321,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1">
         <v>1000</v>
@@ -338,7 +341,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1">
         <v>780</v>
@@ -358,7 +361,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1">
         <v>950</v>
@@ -378,7 +381,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
         <v>950</v>
@@ -398,7 +401,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>1033</v>
@@ -418,7 +421,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
         <v>806</v>
@@ -438,7 +441,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1">
         <v>975</v>
@@ -458,7 +461,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1">
         <v>975</v>
@@ -478,7 +481,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1">
         <v>1135</v>
@@ -498,7 +501,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1">
         <v>1045</v>
@@ -518,7 +521,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <v>1045</v>
@@ -538,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
         <v>1445</v>
@@ -558,7 +561,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1">
         <v>1043</v>
@@ -578,7 +581,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1">
         <v>1043</v>
@@ -598,7 +601,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1">
         <v>1135</v>
@@ -618,7 +621,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
         <v>690</v>
@@ -638,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1">
         <v>1273</v>
@@ -658,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
         <v>1230</v>
@@ -678,7 +681,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1">
         <v>1230</v>
@@ -698,7 +701,7 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1">
         <v>1270</v>
@@ -718,7 +721,7 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1">
         <v>725</v>
@@ -738,7 +741,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1">
         <v>1227</v>
@@ -758,7 +761,7 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1">
         <v>736</v>
@@ -778,7 +781,7 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1">
         <v>712</v>
@@ -798,7 +801,7 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1">
         <v>1209</v>
@@ -818,7 +821,7 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
         <v>724</v>
@@ -838,7 +841,7 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
         <v>1215</v>
@@ -858,7 +861,7 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
         <v>661</v>
@@ -878,7 +881,7 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
         <v>960</v>
@@ -898,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <v>1730</v>
@@ -918,7 +921,7 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
         <v>1961</v>
@@ -938,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1">
         <v>1260</v>
@@ -958,7 +961,7 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1">
         <v>670</v>
@@ -978,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" s="1">
         <v>1340</v>
@@ -998,7 +1001,7 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1">
         <v>747</v>
@@ -1018,7 +1021,7 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1">
         <v>2034</v>
@@ -1038,7 +1041,7 @@
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C43" s="1">
         <v>3527</v>
@@ -1058,7 +1061,7 @@
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C44" s="1">
         <v>704</v>
@@ -1078,7 +1081,7 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C45" s="1">
         <v>704</v>
@@ -1098,7 +1101,7 @@
         <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C46" s="1">
         <v>1430</v>
@@ -1118,7 +1121,7 @@
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C47" s="1">
         <v>797</v>
@@ -1138,7 +1141,7 @@
         <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48" s="1">
         <v>1434</v>
@@ -1158,7 +1161,7 @@
         <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1">
         <v>857</v>
@@ -1178,7 +1181,7 @@
         <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" s="1">
         <v>705</v>
@@ -1198,7 +1201,7 @@
         <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C51" s="1">
         <v>800</v>
@@ -1211,6 +1214,26 @@
       </c>
       <c r="F51" s="1">
         <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1940</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>79</v>
+      </c>
+      <c r="F52" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
